--- a/Database structure template.xlsx
+++ b/Database structure template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96cc1363e59f2cdc/Data_Analysis_bootcamp/Module_20/dexter_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A610FCCD-4E7F-4474-BF95-93F2BE3D19B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{A610FCCD-4E7F-4474-BF95-93F2BE3D19B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDBC329-8A79-465A-BC51-5B96539E7FD1}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2475" windowWidth="21210" windowHeight="16590" xr2:uid="{AE67E78B-B696-4E1E-A38C-7215BBA6725A}"/>
+    <workbookView xWindow="870" yWindow="3720" windowWidth="21210" windowHeight="16590" activeTab="1" xr2:uid="{AE67E78B-B696-4E1E-A38C-7215BBA6725A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482EF901-D060-4B9E-860F-00E46F7F0EF8}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +907,6 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
@@ -1085,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D314736B-E109-4CD3-A5BE-BE9811EFAAB2}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G18:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
